--- a/Supplementary documents/Table S1. Summary of 16 existing tools for the prediction of Ksucc sites in proteins.xlsx
+++ b/Supplementary documents/Table S1. Summary of 16 existing tools for the prediction of Ksucc sites in proteins.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24706"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zd\论文工作\论文\补充文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DeepSucc\Supplementary documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12754601-B23A-4DD4-B81E-3277A4262F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFAAAFB-4EE6-474F-9C50-CF5DFDF903B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="98">
   <si>
     <t>Tools</t>
   </si>
@@ -284,6 +284,70 @@
   </si>
   <si>
     <t>iSuc-PseAAC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inspector</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBPB,PSDAAP,Pse-AAC,PWAA,EGAAC,CKSAAGP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUscADEL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full Sequence,Fragment Sequence</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhosphoSitePlus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>965/2110</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://muscadel.erc.monash.edu/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>predML-Site</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACF,PseAAC,AAF,BE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA/1169</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://103.99.176.239/predML-Site</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,6 +545,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -490,7 +557,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -819,18 +886,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -897,7 +964,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1241,7 +1308,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1306,7 +1373,7 @@
       <c r="A17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -1315,10 +1382,10 @@
       <c r="D17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>68</v>
       </c>
       <c r="G17" s="11">
@@ -1332,67 +1399,161 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:10" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="11">
+        <v>27</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="11">
+        <v>35</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G20" s="11">
         <v>21</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H20" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J20" s="11">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
+    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="11">
+        <v>27</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A19:J20"/>
+    <mergeCell ref="A22:J23"/>
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1405,11 +1566,13 @@
     <hyperlink ref="H11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="H14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="H16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="H5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H18" r:id="rId11" xr:uid="{0A84D186-1738-4D80-8789-69043CED1785}"/>
+    <hyperlink ref="H21" r:id="rId12" xr:uid="{36F428EF-41B7-40FA-859D-2FB18D973A8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
